--- a/Excel-data/Progressdata.xlsx
+++ b/Excel-data/Progressdata.xlsx
@@ -400,7 +400,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
